--- a/data/datasets.xlsx
+++ b/data/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\libs\anfis\X-ANFIS_examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A1C954-4E74-4D37-8C3A-6DDD6C5352D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F661AAC8-D166-4728-9256-4283DA2BE5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1FBC64F0-66F5-47A0-991E-5C6290E3422B}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10728" xr2:uid="{1FBC64F0-66F5-47A0-991E-5C6290E3422B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>Task</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>kaggle</t>
+  </si>
+  <si>
+    <t>#9 - after preprocessed</t>
   </si>
 </sst>
 </file>
@@ -593,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDF889A-EFF9-4999-9251-CFE06BFA06A2}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,6 +972,11 @@
         <v>67</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
